--- a/BackTest/2020-01-19 BackTest FNB.xlsx
+++ b/BackTest/2020-01-19 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2794,10 +2794,14 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.17</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2827,11 +2831,19 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2872,19 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,7 +2913,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>2.171</v>
@@ -2930,7 +2950,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>2.171</v>
@@ -2971,7 +2991,7 @@
         <v>-16705585.72813636</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>2.171</v>
@@ -3012,7 +3032,7 @@
         <v>-16845305.50493636</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2.19</v>
@@ -3053,7 +3073,7 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>2.171</v>
@@ -3094,7 +3114,7 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>2.19</v>
@@ -3135,7 +3155,7 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>2.19</v>
@@ -3176,11 +3196,9 @@
         <v>-16970481.28173636</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>2.171</v>
       </c>
@@ -3217,7 +3235,7 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>2.172</v>
@@ -3258,9 +3276,11 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.189</v>
+      </c>
       <c r="J85" t="n">
         <v>2.171</v>
       </c>
@@ -3297,9 +3317,11 @@
         <v>-18901789.55043636</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.189</v>
+      </c>
       <c r="J86" t="n">
         <v>2.171</v>
       </c>
@@ -3336,9 +3358,11 @@
         <v>-19360103.83423636</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.173</v>
+      </c>
       <c r="J87" t="n">
         <v>2.171</v>
       </c>
@@ -3375,9 +3399,11 @@
         <v>-19360886.83423636</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.17</v>
+      </c>
       <c r="J88" t="n">
         <v>2.171</v>
       </c>
@@ -3414,9 +3440,11 @@
         <v>-19357250.83423636</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J89" t="n">
         <v>2.171</v>
       </c>
@@ -3453,9 +3481,11 @@
         <v>-19357484.43423636</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.169</v>
+      </c>
       <c r="J90" t="n">
         <v>2.171</v>
       </c>
@@ -3492,9 +3522,11 @@
         <v>-19355114.43423636</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.166</v>
+      </c>
       <c r="J91" t="n">
         <v>2.171</v>
       </c>
@@ -3531,9 +3563,11 @@
         <v>-19355368.93423636</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.17</v>
+      </c>
       <c r="J92" t="n">
         <v>2.171</v>
       </c>
@@ -3570,9 +3604,11 @@
         <v>-19251067.37563636</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.166</v>
+      </c>
       <c r="J93" t="n">
         <v>2.171</v>
       </c>
@@ -3609,7 +3645,7 @@
         <v>-19251067.37563636</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>2.172</v>
@@ -3650,9 +3686,11 @@
         <v>-19268992.87563636</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.172</v>
+      </c>
       <c r="J95" t="n">
         <v>2.171</v>
       </c>
@@ -3689,7 +3727,7 @@
         <v>-18883538.23963636</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>2.171</v>
@@ -3730,7 +3768,7 @@
         <v>-18867362.96803636</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>2.172</v>
@@ -3771,7 +3809,7 @@
         <v>-18921014.61773636</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>2.19</v>
@@ -3812,7 +3850,7 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>2.189</v>
@@ -3853,7 +3891,7 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>2.19</v>
@@ -3894,9 +3932,11 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.19</v>
+      </c>
       <c r="J101" t="n">
         <v>2.171</v>
       </c>
@@ -3933,9 +3973,11 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.19</v>
+      </c>
       <c r="J102" t="n">
         <v>2.171</v>
       </c>
@@ -8730,7 +8772,7 @@
         <v>-10644684.73796149</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -8769,7 +8811,7 @@
         <v>-10644684.73796149</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
@@ -8808,7 +8850,7 @@
         <v>-10645176.27066149</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
@@ -8886,7 +8928,7 @@
         <v>-10645176.27066149</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
@@ -8925,7 +8967,7 @@
         <v>-10108077.29716149</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
@@ -9081,7 +9123,7 @@
         <v>-16406147.92124228</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
@@ -9354,7 +9396,7 @@
         <v>-17555330.54684228</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
@@ -9362,15 +9404,13 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.054419622293874</v>
-      </c>
-      <c r="M241" t="n">
-        <v>1.034195933456562</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9398,8 +9438,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9431,8 +9477,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9464,8 +9516,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9497,8 +9555,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9530,8 +9594,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9563,8 +9633,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9596,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9629,8 +9711,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9662,8 +9750,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9695,8 +9789,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +9828,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9761,8 +9867,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9794,8 +9906,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9827,8 +9945,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +9984,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9893,8 +10023,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9926,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9992,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10025,8 +10179,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10058,8 +10218,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10091,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10124,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10157,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10190,8 +10374,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10223,8 +10413,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10256,8 +10452,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10289,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10322,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10355,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10388,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10421,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10454,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10487,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10520,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10553,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10586,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10619,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10652,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10685,8 +10959,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10718,8 +10998,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10751,8 +11037,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10784,8 +11076,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +11115,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10850,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10883,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10916,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10949,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10982,8 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11015,8 +11349,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11048,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11081,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11114,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11147,8 +11505,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11180,8 +11544,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11213,8 +11583,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11246,8 +11622,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11661,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11312,8 +11700,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11345,8 +11739,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11378,8 +11778,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11411,8 +11817,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11444,8 +11856,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11477,8 +11895,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11510,8 +11934,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11543,8 +11973,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11576,8 +12012,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11609,8 +12051,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11642,8 +12090,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11675,8 +12129,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11708,8 +12168,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11741,8 +12207,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11774,8 +12246,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11807,8 +12285,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11840,8 +12324,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11873,8 +12363,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11906,8 +12402,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11939,8 +12441,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12480,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +12519,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12038,8 +12558,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12071,8 +12597,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12104,8 +12636,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12137,8 +12675,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12170,8 +12714,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12203,8 +12753,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12236,8 +12792,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +12831,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12302,8 +12870,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +12909,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12368,8 +12948,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12401,8 +12987,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +13026,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12467,8 +13065,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12500,8 +13104,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12533,8 +13143,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12566,8 +13182,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12599,8 +13221,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12632,8 +13260,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12665,8 +13299,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +13338,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12731,8 +13377,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12764,8 +13416,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12797,8 +13455,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12830,8 +13494,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12863,8 +13533,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12896,8 +13572,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12929,8 +13611,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12962,8 +13650,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12995,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13028,8 +13728,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13061,8 +13767,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13094,8 +13806,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +13845,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +13884,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13193,8 +13923,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13226,8 +13962,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13259,8 +14001,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13292,8 +14040,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13325,8 +14079,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +14118,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13391,8 +14157,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +14196,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13457,8 +14235,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13490,8 +14274,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13523,8 +14313,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13556,8 +14352,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13589,8 +14391,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13622,8 +14430,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13655,8 +14469,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13688,8 +14508,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13721,8 +14547,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13754,8 +14586,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13787,8 +14625,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13820,8 +14664,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13853,8 +14703,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13886,8 +14742,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13919,8 +14781,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13952,8 +14820,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13985,8 +14859,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14018,8 +14898,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14051,8 +14937,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14084,8 +14976,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14117,8 +15015,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14150,8 +15054,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14183,8 +15093,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14216,8 +15132,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14249,8 +15171,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14282,8 +15210,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14315,8 +15249,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14348,8 +15288,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14381,8 +15327,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14414,8 +15366,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14447,8 +15405,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14480,8 +15444,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +15483,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14546,8 +15522,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14579,8 +15561,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14612,8 +15600,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +15639,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14678,8 +15678,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14711,8 +15717,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14744,8 +15756,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14777,8 +15795,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14810,8 +15834,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14843,8 +15873,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14876,8 +15912,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14909,8 +15951,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14942,8 +15990,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14975,8 +16029,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15008,8 +16068,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15041,8 +16107,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15074,8 +16146,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15107,8 +16185,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15140,8 +16224,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15173,8 +16263,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15206,8 +16302,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15239,8 +16341,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15272,8 +16380,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15305,8 +16419,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15338,8 +16458,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15371,8 +16497,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15404,8 +16536,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15437,8 +16575,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +16614,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15503,8 +16653,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15536,8 +16692,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15569,8 +16731,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15602,8 +16770,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15635,8 +16809,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15668,8 +16848,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15701,8 +16887,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15734,8 +16926,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15767,8 +16965,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15800,8 +17004,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15833,8 +17043,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15866,8 +17082,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15899,8 +17121,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15932,8 +17160,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15965,8 +17199,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15998,8 +17238,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16031,8 +17277,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16064,8 +17316,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16097,8 +17355,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16130,8 +17394,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16163,8 +17433,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16196,8 +17472,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16229,8 +17511,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16262,8 +17550,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16295,8 +17589,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16328,8 +17628,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16361,8 +17667,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16394,8 +17706,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16427,8 +17745,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16460,8 +17784,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16493,8 +17823,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16526,8 +17862,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16559,8 +17901,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16592,8 +17940,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16625,8 +17979,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16658,8 +18018,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16691,8 +18057,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16724,8 +18096,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16757,8 +18135,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16787,11 +18171,17 @@
         <v>-7792737.435731266</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16820,11 +18210,17 @@
         <v>-7792737.435731266</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16853,11 +18249,17 @@
         <v>-7780497.435731266</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16886,11 +18288,17 @@
         <v>-7790742.982831266</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16919,11 +18327,17 @@
         <v>-8052237.966031265</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16952,11 +18366,17 @@
         <v>-8052237.966031265</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16985,11 +18405,17 @@
         <v>-8313031.424031265</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17018,11 +18444,17 @@
         <v>-10967904.91973126</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +18483,17 @@
         <v>-10967904.91973126</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17084,11 +18522,17 @@
         <v>-10968662.47103127</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17120,8 +18564,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17153,8 +18603,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17186,8 +18642,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17219,8 +18681,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17252,8 +18720,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17282,11 +18756,17 @@
         <v>-10915765.44633127</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17315,11 +18795,17 @@
         <v>-10916005.44633127</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +18834,17 @@
         <v>-11058710.75853127</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17384,8 +18876,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17417,8 +18915,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17450,8 +18954,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17483,8 +18993,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17516,8 +19032,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17546,11 +19068,17 @@
         <v>-10047866.82813127</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17582,8 +19110,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17615,8 +19149,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17648,8 +19188,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17681,8 +19227,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17714,8 +19266,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17747,8 +19305,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17780,8 +19344,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17813,8 +19383,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17846,8 +19422,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17879,8 +19461,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17912,8 +19500,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17945,8 +19539,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17978,8 +19578,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18011,8 +19617,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18044,8 +19656,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18077,8 +19695,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18110,8 +19734,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18143,8 +19773,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18176,8 +19812,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18209,8 +19851,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18242,8 +19890,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18275,8 +19929,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18308,8 +19968,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18341,8 +20007,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18371,15 +20043,23 @@
         <v>-10412354.25233127</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
+        <v>1.061328880700138</v>
+      </c>
+      <c r="M514" t="n">
+        <v>1.034195933456562</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -18404,7 +20084,7 @@
         <v>-10412354.25233127</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18437,7 +20117,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18470,7 +20150,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18503,7 +20183,7 @@
         <v>-7595260.728531266</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18536,7 +20216,7 @@
         <v>-7695502.558931266</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18569,7 +20249,7 @@
         <v>-7678209.607731266</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18602,7 +20282,7 @@
         <v>-7873110.846131266</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18635,7 +20315,7 @@
         <v>-7859075.169731266</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18668,7 +20348,7 @@
         <v>-7212863.925231266</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18701,7 +20381,7 @@
         <v>-7058530.456931266</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18734,7 +20414,7 @@
         <v>-7219753.765431266</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18767,7 +20447,7 @@
         <v>-7396167.485431266</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18800,7 +20480,7 @@
         <v>-7428908.560431266</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18833,7 +20513,7 @@
         <v>-8235857.629131266</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18866,7 +20546,7 @@
         <v>-8236097.629131266</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18899,7 +20579,7 @@
         <v>-8531018.896431265</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18932,7 +20612,7 @@
         <v>-8531492.896431265</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18965,7 +20645,7 @@
         <v>-8530118.882431265</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18998,7 +20678,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19031,7 +20711,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19064,7 +20744,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19097,7 +20777,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19130,7 +20810,7 @@
         <v>-8520316.539231265</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19163,7 +20843,7 @@
         <v>-8520316.539231265</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19196,7 +20876,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19229,7 +20909,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19262,7 +20942,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19295,7 +20975,7 @@
         <v>-8728494.643331265</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19328,7 +21008,7 @@
         <v>-8525209.188631264</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19361,7 +21041,7 @@
         <v>-8525449.188631264</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19372,6 +21052,6 @@
       <c r="M544" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FNB.xlsx
+++ b/BackTest/2020-01-19 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,11 +2761,17 @@
         <v>-16706307.93993636</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.171</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,15 +2800,15 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2836,12 +2842,10 @@
       <c r="I74" t="n">
         <v>2.171</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.17</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2877,12 +2881,10 @@
       <c r="I75" t="n">
         <v>2.171</v>
       </c>
-      <c r="J75" t="n">
-        <v>2.17</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2918,10 +2920,12 @@
       <c r="I76" t="n">
         <v>2.171</v>
       </c>
-      <c r="J76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2955,12 +2959,10 @@
       <c r="I77" t="n">
         <v>2.171</v>
       </c>
-      <c r="J77" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2996,12 +2998,10 @@
       <c r="I78" t="n">
         <v>2.171</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3032,17 +3032,13 @@
         <v>-16845305.50493636</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3078,9 +3074,7 @@
       <c r="I80" t="n">
         <v>2.171</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3119,9 +3113,7 @@
       <c r="I81" t="n">
         <v>2.19</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,14 +3147,10 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,12 +3184,12 @@
         <v>-16970481.28173636</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,9 +3228,7 @@
       <c r="I84" t="n">
         <v>2.172</v>
       </c>
-      <c r="J84" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,14 +3262,10 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,14 +3299,10 @@
         <v>-18901789.55043636</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,14 +3336,10 @@
         <v>-19360103.83423636</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.173</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,14 +3373,10 @@
         <v>-19360886.83423636</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,9 +3415,7 @@
       <c r="I89" t="n">
         <v>2.167</v>
       </c>
-      <c r="J89" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,9 +3454,7 @@
       <c r="I90" t="n">
         <v>2.169</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3527,9 +3493,7 @@
       <c r="I91" t="n">
         <v>2.166</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,9 +3532,7 @@
       <c r="I92" t="n">
         <v>2.17</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,9 +3571,7 @@
       <c r="I93" t="n">
         <v>2.166</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,9 +3610,7 @@
       <c r="I94" t="n">
         <v>2.172</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,9 +3649,7 @@
       <c r="I95" t="n">
         <v>2.172</v>
       </c>
-      <c r="J95" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,9 +3688,7 @@
       <c r="I96" t="n">
         <v>2.171</v>
       </c>
-      <c r="J96" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3727,7 @@
       <c r="I97" t="n">
         <v>2.172</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3814,9 +3766,7 @@
       <c r="I98" t="n">
         <v>2.19</v>
       </c>
-      <c r="J98" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,9 +3805,7 @@
       <c r="I99" t="n">
         <v>2.189</v>
       </c>
-      <c r="J99" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,9 +3844,7 @@
       <c r="I100" t="n">
         <v>2.19</v>
       </c>
-      <c r="J100" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3937,9 +3883,7 @@
       <c r="I101" t="n">
         <v>2.19</v>
       </c>
-      <c r="J101" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,9 +3922,7 @@
       <c r="I102" t="n">
         <v>2.19</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,12 +3956,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,12 +3995,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2.171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,12 +4034,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,12 +4073,12 @@
         <v>-18305440.49393636</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2.171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,9 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,9 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,9 +4226,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4329,9 +4263,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,9 +4300,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,9 +4337,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,9 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,9 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,9 +4485,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,9 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,9 +4559,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,9 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,9 +4633,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,9 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,9 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,9 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4875,9 +4781,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,9 +4818,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4953,9 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4992,9 +4892,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5031,9 +4929,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5070,9 +4966,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,9 +5003,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5148,9 +5040,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,9 +5077,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5226,9 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,9 +5188,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,9 +5225,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,9 +5262,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5421,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,9 +5336,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5499,9 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,9 +5410,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,9 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,9 +5484,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,9 +5521,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,9 +5558,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5733,9 +5595,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,9 +5632,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,9 +5669,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,9 +5706,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,9 +5743,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,9 +5780,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,9 +5817,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6006,9 +5854,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,9 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,9 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6123,9 +5965,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,9 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6201,9 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6240,9 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,9 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6318,9 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,9 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,9 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,9 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,9 +6372,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6591,9 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,9 +6446,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,9 +6483,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,9 +6520,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6747,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6825,9 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6864,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,9 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,9 +6816,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,9 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7098,9 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7137,9 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7176,9 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,9 +7001,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7254,9 +7038,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,9 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7332,9 +7112,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7371,9 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7410,9 +7186,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7449,9 +7223,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7488,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7527,9 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,9 +7334,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7605,9 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7644,9 +7408,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,9 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,9 +7482,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7761,9 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7800,9 +7556,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7839,9 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,9 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7917,9 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,9 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7995,9 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8034,9 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8073,9 +7815,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8112,9 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,9 +7889,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8190,9 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,9 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,9 +8000,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8307,9 +8037,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8346,9 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8424,9 +8148,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8463,9 +8185,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,9 +8222,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,9 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,9 +8296,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,9 +8333,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,9 +8370,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,9 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,9 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,9 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8814,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,9 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,9 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,9 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,9 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9009,9 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,9 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9087,9 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9126,9 +8814,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9165,9 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,9 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9243,9 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9321,9 +8999,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,9 +9036,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9399,9 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,9 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,9 +9147,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9516,9 +9184,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9555,9 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,9 +9258,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9633,9 +9295,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9672,9 +9332,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9711,9 +9369,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,9 +9406,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,9 +9443,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9828,9 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,9 +9517,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9906,9 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9945,9 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,9 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10023,9 +9665,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10062,9 +9702,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10101,9 +9739,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,9 +9776,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10179,9 +9813,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10215,20 +9847,16 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2.171</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -10254,17 +9882,11 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10293,17 +9915,11 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10332,17 +9948,11 @@
         <v>-20797685.02326272</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10374,14 +9984,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10413,14 +10017,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10452,14 +10050,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10491,14 +10083,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10530,14 +10116,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10569,14 +10149,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10608,14 +10182,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10647,14 +10215,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10686,14 +10248,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10725,14 +10281,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10764,14 +10314,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10803,14 +10347,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10842,14 +10380,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +10413,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +10446,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +10479,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10998,14 +10512,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +10545,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10578,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11115,14 +10611,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +10644,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +10677,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +10710,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +10743,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +10776,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +10809,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +10842,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +10875,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +10908,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11505,14 +10941,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11544,14 +10974,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +11007,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +11040,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +11073,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11700,14 +11106,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11739,14 +11139,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11778,14 +11172,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11817,14 +11205,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11856,14 +11238,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +11271,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11934,14 +11304,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11973,14 +11337,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12012,14 +11370,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12051,14 +11403,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12090,14 +11436,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12129,14 +11469,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12168,14 +11502,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12207,14 +11535,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12246,14 +11568,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12285,14 +11601,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12324,14 +11634,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12363,14 +11667,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12402,14 +11700,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12441,14 +11733,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12480,14 +11766,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12519,14 +11799,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12558,14 +11832,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12597,14 +11865,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12636,14 +11898,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12675,14 +11931,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12714,14 +11964,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12753,14 +11997,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12792,14 +12030,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12831,14 +12063,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12870,14 +12096,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12909,14 +12129,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12948,14 +12162,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12987,14 +12195,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13026,14 +12228,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13065,14 +12261,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13104,14 +12294,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13143,14 +12327,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13182,14 +12360,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13221,14 +12393,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13260,14 +12426,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13299,14 +12459,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13338,14 +12492,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13377,14 +12525,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13416,14 +12558,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13455,14 +12591,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13494,14 +12624,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13533,14 +12657,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13572,14 +12690,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13611,14 +12723,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13650,14 +12756,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13689,14 +12789,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13728,14 +12822,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13767,14 +12855,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13806,14 +12888,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13845,14 +12921,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13884,14 +12954,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13923,14 +12987,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13962,14 +13020,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14001,14 +13053,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14040,14 +13086,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14079,14 +13119,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +13152,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14157,14 +13185,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14196,14 +13218,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14235,14 +13251,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14274,14 +13284,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14313,14 +13317,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14352,14 +13350,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14391,14 +13383,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14430,14 +13416,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14469,14 +13449,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14508,14 +13482,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14547,14 +13515,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14586,14 +13548,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14625,14 +13581,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14664,14 +13614,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14703,14 +13647,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14742,14 +13680,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +13713,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14820,14 +13746,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14859,14 +13779,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14898,14 +13812,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14937,14 +13845,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14976,14 +13878,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15015,14 +13911,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15054,14 +13944,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15093,14 +13977,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15132,14 +14010,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15171,14 +14043,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15210,14 +14076,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15249,14 +14109,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15288,14 +14142,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15327,14 +14175,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15366,14 +14208,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15405,14 +14241,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15444,14 +14274,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15483,14 +14307,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15522,14 +14340,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15561,14 +14373,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +14406,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15639,14 +14439,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15678,14 +14472,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15717,14 +14505,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15756,14 +14538,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15795,14 +14571,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15834,14 +14604,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15873,14 +14637,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15912,14 +14670,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15951,14 +14703,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15990,14 +14736,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16029,14 +14769,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16068,14 +14802,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16107,14 +14835,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16146,14 +14868,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16185,14 +14901,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16224,14 +14934,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16263,14 +14967,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16302,14 +15000,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16341,14 +15033,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16380,14 +15066,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16419,14 +15099,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16458,14 +15132,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16497,14 +15165,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16536,14 +15198,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16575,14 +15231,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16614,14 +15264,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16653,14 +15297,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16692,14 +15330,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16731,14 +15363,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16770,14 +15396,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16809,14 +15429,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16848,14 +15462,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16887,14 +15495,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16926,14 +15528,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16965,14 +15561,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17004,14 +15594,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17043,14 +15627,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17082,14 +15660,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17121,14 +15693,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17160,14 +15726,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17199,14 +15759,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17238,14 +15792,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17277,14 +15825,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17316,14 +15858,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17355,14 +15891,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17394,14 +15924,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17433,14 +15957,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17472,14 +15990,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17511,14 +16023,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17550,14 +16056,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17589,14 +16089,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17628,14 +16122,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17667,14 +16155,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17706,14 +16188,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17745,14 +16221,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17784,14 +16254,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17823,14 +16287,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17862,14 +16320,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17901,14 +16353,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17940,14 +16386,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17979,14 +16419,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18018,14 +16452,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18057,14 +16485,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18096,14 +16518,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18135,14 +16551,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18174,14 +16584,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18213,14 +16617,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18252,14 +16650,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18291,14 +16683,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18330,14 +16716,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18369,14 +16749,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18408,14 +16782,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18447,14 +16815,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18486,14 +16848,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18525,14 +16881,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18564,14 +16914,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18603,14 +16947,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18642,14 +16980,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18681,14 +17013,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18720,14 +17046,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18759,14 +17079,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18798,14 +17112,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18837,14 +17145,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18876,14 +17178,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18915,14 +17211,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18954,14 +17244,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18993,14 +17277,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19032,14 +17310,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19071,14 +17343,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19110,14 +17376,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19149,14 +17409,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19188,14 +17442,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19227,14 +17475,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19266,14 +17508,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19305,14 +17541,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19344,14 +17574,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19383,14 +17607,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19422,14 +17640,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19461,14 +17673,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19500,14 +17706,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19539,14 +17739,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19578,14 +17772,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19617,14 +17805,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19656,14 +17838,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19695,14 +17871,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19734,14 +17904,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19773,14 +17937,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19812,14 +17970,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19851,14 +18003,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19890,14 +18036,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19929,14 +18069,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19968,14 +18102,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20007,14 +18135,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20043,23 +18165,15 @@
         <v>-10412354.25233127</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
-        <v>1.061328880700138</v>
-      </c>
-      <c r="M514" t="n">
-        <v>1.034195933456562</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -20084,7 +18198,7 @@
         <v>-10412354.25233127</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20117,7 +18231,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20150,7 +18264,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20183,7 +18297,7 @@
         <v>-7595260.728531266</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20216,7 +18330,7 @@
         <v>-7695502.558931266</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20249,7 +18363,7 @@
         <v>-7678209.607731266</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20282,7 +18396,7 @@
         <v>-7873110.846131266</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20315,7 +18429,7 @@
         <v>-7859075.169731266</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20348,7 +18462,7 @@
         <v>-7212863.925231266</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20381,7 +18495,7 @@
         <v>-7058530.456931266</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20414,7 +18528,7 @@
         <v>-7219753.765431266</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20447,7 +18561,7 @@
         <v>-7396167.485431266</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20480,7 +18594,7 @@
         <v>-7428908.560431266</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20513,7 +18627,7 @@
         <v>-8235857.629131266</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20546,7 +18660,7 @@
         <v>-8236097.629131266</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20579,7 +18693,7 @@
         <v>-8531018.896431265</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20612,7 +18726,7 @@
         <v>-8531492.896431265</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20645,7 +18759,7 @@
         <v>-8530118.882431265</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20678,7 +18792,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20711,7 +18825,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20744,7 +18858,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20777,7 +18891,7 @@
         <v>-8530358.882431265</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20810,7 +18924,7 @@
         <v>-8520316.539231265</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20843,7 +18957,7 @@
         <v>-8520316.539231265</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20876,7 +18990,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20909,7 +19023,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20942,7 +19056,7 @@
         <v>-8778011.655931264</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20975,7 +19089,7 @@
         <v>-8728494.643331265</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21008,7 +19122,7 @@
         <v>-8525209.188631264</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21041,7 +19155,7 @@
         <v>-8525449.188631264</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21052,6 +19166,6 @@
       <c r="M544" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FNB.xlsx
+++ b/BackTest/2020-01-19 BackTest FNB.xlsx
@@ -2761,286 +2761,252 @@
         <v>-16706307.93993636</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>2.171</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="C73" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F73" t="n">
+        <v>488.2118</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-16705819.72813636</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9090</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-16705819.72813636</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5454</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-16705819.72813636</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F76" t="n">
+        <v>89078.89350000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-16705819.72813636</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F77" t="n">
+        <v>52458.8833</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-16705819.72813636</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F78" t="n">
+        <v>234</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-16705585.72813636</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F79" t="n">
+        <v>139719.7768</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-16845305.50493636</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F73" t="n">
-        <v>488.2118</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-16705819.72813636</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F74" t="n">
-        <v>9090</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-16705819.72813636</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F75" t="n">
-        <v>5454</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-16705819.72813636</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F76" t="n">
-        <v>89078.89350000001</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-16705819.72813636</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F77" t="n">
-        <v>52458.8833</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-16705819.72813636</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F78" t="n">
-        <v>234</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-16705585.72813636</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2.173</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2.173</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="F79" t="n">
-        <v>139719.7768</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-16845305.50493636</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3074,7 +3040,9 @@
       <c r="I80" t="n">
         <v>2.171</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3108,12 +3076,12 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,7 +3118,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,12 +3154,12 @@
         <v>-16970481.28173636</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,12 +3193,12 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.172</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,7 +3235,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,7 +3274,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,7 +3313,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,7 +3352,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,12 +3388,12 @@
         <v>-19357250.83423636</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,7 +3432,9 @@
       <c r="I90" t="n">
         <v>2.169</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,7 +3473,9 @@
       <c r="I91" t="n">
         <v>2.166</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +3514,9 @@
       <c r="I92" t="n">
         <v>2.17</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,7 +3555,9 @@
       <c r="I93" t="n">
         <v>2.166</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,7 +3596,9 @@
       <c r="I94" t="n">
         <v>2.172</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3637,9 @@
       <c r="I95" t="n">
         <v>2.172</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,7 +3678,9 @@
       <c r="I96" t="n">
         <v>2.171</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,7 +3719,9 @@
       <c r="I97" t="n">
         <v>2.172</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,7 +3760,9 @@
       <c r="I98" t="n">
         <v>2.19</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,7 +3801,9 @@
       <c r="I99" t="n">
         <v>2.189</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,7 +3842,9 @@
       <c r="I100" t="n">
         <v>2.19</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,7 +3883,9 @@
       <c r="I101" t="n">
         <v>2.19</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,12 +3919,12 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,12 +3958,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,12 +3997,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,12 +4036,12 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,12 +4075,12 @@
         <v>-18305440.49393636</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,7 +4117,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,7 +4156,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,7 +4195,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,7 +4234,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,7 +4273,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,7 +4312,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,7 +4351,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,7 +4390,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,7 +4429,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,7 +4468,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,7 +4507,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,7 +4546,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4559,7 +4585,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,7 +4624,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4633,7 +4663,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,7 +4702,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,7 +4741,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,7 +4780,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,7 +4819,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,7 +4858,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,7 +4897,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,7 +4936,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,7 +4975,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,7 +5014,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,7 +5053,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,7 +5092,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,7 +5131,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,7 +5170,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,7 +5209,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,7 +5248,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,7 +5287,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,7 +5326,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5299,7 +5365,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,7 +5404,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,7 +5443,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,7 +5482,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,7 +5521,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,7 +5560,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,7 +5599,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,7 +5638,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,7 +5677,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,7 +5716,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,7 +5755,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,7 +5794,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5743,7 +5833,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,7 +5872,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5817,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,7 +5950,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,7 +6028,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5965,7 +6067,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,7 +6106,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,7 +6184,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,7 +6223,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,7 +6301,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,7 +6379,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,7 +6418,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6335,7 +6457,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,7 +6496,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6409,7 +6535,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6446,7 +6574,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6483,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6520,7 +6652,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,7 +6691,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,7 +6730,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,7 +6769,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6668,7 +6808,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,7 +6847,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6742,7 +6886,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6779,7 +6925,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,7 +6964,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,7 +7003,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,7 +7042,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,7 +7081,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,7 +7120,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7001,7 +7159,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7038,7 +7198,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7075,7 +7237,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7112,7 +7276,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7149,7 +7315,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,7 +7354,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,7 +7393,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,7 +7432,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,7 +7471,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,7 +7510,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7371,7 +7549,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7408,7 +7588,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7445,7 +7627,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,7 +7666,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7519,7 +7705,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7556,7 +7744,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7593,7 +7783,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7630,7 +7822,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7667,7 +7861,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,7 +7900,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,7 +7939,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7778,7 +7978,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,7 +8017,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7852,7 +8056,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7889,7 +8095,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7926,7 +8134,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,7 +8173,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,7 +8212,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,7 +8251,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,7 +8290,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,7 +8329,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8148,7 +8368,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8185,7 +8407,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8222,7 +8446,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,7 +8485,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8296,7 +8524,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,7 +8563,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8370,7 +8602,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,7 +8641,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8444,7 +8680,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8481,7 +8719,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8518,7 +8758,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,7 +8797,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8592,7 +8836,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,7 +8875,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,7 +8914,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8703,7 +8953,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,7 +8992,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,7 +9031,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8811,19 +9067,23 @@
         <v>-16406147.92124228</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2.171</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>1.093572086596039</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.034195933456562</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8848,15 +9108,11 @@
         <v>-16781970.34284228</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +9145,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +9178,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +9211,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +9244,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +9277,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9074,11 +9310,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9111,11 +9343,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9148,11 +9376,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +9409,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9222,11 +9442,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9475,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +9508,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +9541,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9574,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +9607,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +9640,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9481,11 +9673,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +9706,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +9739,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9772,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +9805,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9666,11 +9838,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9703,11 +9871,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +9904,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9777,11 +9937,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9814,11 +9970,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9847,16 +9999,14 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
       <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -9882,7 +10032,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9915,7 +10065,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9948,7 +10098,7 @@
         <v>-20797685.02326272</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -18264,7 +18414,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18297,7 +18447,7 @@
         <v>-7595260.728531266</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18495,7 +18645,7 @@
         <v>-7058530.456931266</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18528,7 +18678,7 @@
         <v>-7219753.765431266</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18561,7 +18711,7 @@
         <v>-7396167.485431266</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18594,7 +18744,7 @@
         <v>-7428908.560431266</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
